--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3690.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3690.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.454756352342941</v>
+        <v>2.326164245605469</v>
       </c>
       <c r="B1">
-        <v>3.973358209614496</v>
+        <v>4.610901832580566</v>
       </c>
       <c r="C1">
-        <v>7.103233669081478</v>
+        <v>3.482093811035156</v>
       </c>
       <c r="D1">
-        <v>1.65002428134365</v>
+        <v>2.399358510971069</v>
       </c>
       <c r="E1">
-        <v>0.9989170530592031</v>
+        <v>2.145503997802734</v>
       </c>
     </row>
   </sheetData>
